--- a/Data/NO2NO3ab-June27.xlsx
+++ b/Data/NO2NO3ab-June27.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleighdavis/Dropbox/TEAMM 2018 Pond Nutrients/Raw Data Files/June 27/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleighdavis/Projects/TEAMM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9B8336-D542-EB42-9C0C-BC1D3A82641A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5898B50-1A24-2E4B-9DD4-BA4CE5AF8DF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="24680" windowHeight="12040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Temperature(¡C)</t>
   </si>
@@ -45,16 +45,7 @@
     <t>PLATE SETUP</t>
   </si>
   <si>
-    <t>Samples</t>
-  </si>
-  <si>
     <t>**The 1.0 value nitrite standard is contaminated with nitrate. Should be excluded from calibration curve for now.</t>
-  </si>
-  <si>
-    <t>NO2 stds</t>
-  </si>
-  <si>
-    <t>NO3 stds</t>
   </si>
 </sst>
 </file>
@@ -459,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,7 +632,7 @@
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="P7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -2929,17 +2920,6 @@
       </c>
       <c r="N82" s="4">
         <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" t="s">
-        <v>10</v>
-      </c>
-      <c r="I84" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
